--- a/benchmark_tesi 3.xlsx
+++ b/benchmark_tesi 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoesposito/Desktop/tesi_magistrale/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518719C1-7D8A-0A45-A026-88E83F21B2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80D41E2-6649-574E-A455-24295D40B415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="5" xr2:uid="{D749D920-0970-0945-A64A-146A6930D164}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{D749D920-0970-0945-A64A-146A6930D164}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="219">
   <si>
     <t>Prompt</t>
   </si>
@@ -662,6 +662,63 @@
   </si>
   <si>
     <t>lnk_empire</t>
+  </si>
+  <si>
+    <t>vbs_empire</t>
+  </si>
+  <si>
+    <t>launcher.vbs</t>
+  </si>
+  <si>
+    <t>Empire_multi_py</t>
+  </si>
+  <si>
+    <t>multi_py_empire</t>
+  </si>
+  <si>
+    <t>launcher.xml</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>EVIL_SPECTACLE.exe</t>
+  </si>
+  <si>
+    <t>sliver_exe</t>
+  </si>
+  <si>
+    <t>MANUAL_SANDWICH</t>
+  </si>
+  <si>
+    <t>SUPER_EMPLOYMENT</t>
+  </si>
+  <si>
+    <t>elf_linux</t>
+  </si>
+  <si>
+    <t>encoding_first</t>
+  </si>
+  <si>
+    <t>encoding_first_hyb</t>
+  </si>
+  <si>
+    <t>reverse_shell.php</t>
+  </si>
+  <si>
+    <t>payload.exe</t>
+  </si>
+  <si>
+    <t>uuid_metasploit</t>
+  </si>
+  <si>
+    <t>bad_char</t>
+  </si>
+  <si>
+    <t>bad_hyb</t>
+  </si>
+  <si>
+    <t>encoding_1_2_3.exe</t>
   </si>
 </sst>
 </file>
@@ -1947,9 +2004,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD46793-FCFE-AB41-941D-A351076C4490}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1959,10 +2016,13 @@
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="53.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +2035,14 @@
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="185" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="185" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>56</v>
       </c>
@@ -1989,8 +2055,14 @@
       <c r="D2" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="350" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>59</v>
       </c>
@@ -2003,11 +2075,17 @@
       <c r="D3" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>68</v>
       </c>
@@ -2020,11 +2098,17 @@
       <c r="D4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="207" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="207" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>110</v>
       </c>
@@ -2037,11 +2121,17 @@
       <c r="D5" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="207" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="207" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>113</v>
       </c>
@@ -2054,11 +2144,17 @@
       <c r="D6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="175" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>77</v>
       </c>
@@ -2071,8 +2167,14 @@
       <c r="D7" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="300" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>116</v>
       </c>
@@ -2085,8 +2187,14 @@
       <c r="D8" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="138" x14ac:dyDescent="0.3">
+      <c r="E8" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>119</v>
       </c>
@@ -2099,8 +2207,14 @@
       <c r="D9" s="21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="161" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="161" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>122</v>
       </c>
@@ -2113,8 +2227,14 @@
       <c r="D10" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="253" x14ac:dyDescent="0.3">
+      <c r="E10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="253" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>125</v>
       </c>
@@ -2127,8 +2247,14 @@
       <c r="D11" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="276" x14ac:dyDescent="0.3">
+      <c r="E11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="276" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>128</v>
       </c>
@@ -2141,8 +2267,14 @@
       <c r="D12" s="17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="207" x14ac:dyDescent="0.3">
+      <c r="E12" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="207" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>131</v>
       </c>
@@ -2155,8 +2287,14 @@
       <c r="D13" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="340" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="340" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>134</v>
       </c>
@@ -2169,8 +2307,14 @@
       <c r="D14" s="21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="207" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="207" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>137</v>
       </c>
@@ -2182,6 +2326,12 @@
       </c>
       <c r="D15" s="21" t="s">
         <v>139</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2200,10 +2350,26 @@
     <hyperlink ref="C13" r:id="rId12" xr:uid="{415F1913-19A9-A741-86CC-46CF726CAE72}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{543DE910-8E59-374A-8A8C-F95AE0EA1C24}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{FEF9576A-5C4D-8943-BDF5-3B22514B24C2}"/>
+    <hyperlink ref="E2" r:id="rId15" xr:uid="{6A07744D-9BB0-284E-ACE4-2D0D084E8D0C}"/>
+    <hyperlink ref="F2" r:id="rId16" xr:uid="{C96F768E-6F3F-B24E-8CF1-4BC8D444CB65}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{962F4A79-4CA8-A449-AA44-AC1C911D8A60}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{4840260C-B239-1044-95ED-B5303D174861}"/>
+    <hyperlink ref="E9" r:id="rId19" xr:uid="{DDAF0D6A-06F3-CD48-A189-B8DEC24B307B}"/>
+    <hyperlink ref="F9" r:id="rId20" xr:uid="{78838C0E-761E-A148-B93F-015197E827F4}"/>
+    <hyperlink ref="E5" r:id="rId21" xr:uid="{FFFDBEA6-B11A-274D-8754-4337A5754423}"/>
+    <hyperlink ref="F5" r:id="rId22" xr:uid="{1BDFF250-F912-5049-8EDF-7F70DF95846D}"/>
+    <hyperlink ref="F6" r:id="rId23" xr:uid="{64EFDA30-45F4-4A46-BF4D-583E4B6E09DA}"/>
+    <hyperlink ref="E6" r:id="rId24" xr:uid="{48F8D251-E6DE-0440-B621-08059EB6E27C}"/>
+    <hyperlink ref="E7" r:id="rId25" xr:uid="{E6E5AC9F-3E6B-5541-B8BB-A9483E5EF923}"/>
+    <hyperlink ref="F7" r:id="rId26" xr:uid="{36B79846-1182-884B-A4C8-9B88BFF68B50}"/>
+    <hyperlink ref="E13" r:id="rId27" xr:uid="{C5A5B473-C3CD-2349-8486-491A15DE14DC}"/>
+    <hyperlink ref="F13" r:id="rId28" xr:uid="{7928EE38-2635-2B44-B1CA-2BA0C9D45643}"/>
+    <hyperlink ref="E14" r:id="rId29" xr:uid="{07C438CA-1349-3F47-AF3F-91941B96F743}"/>
+    <hyperlink ref="F14" r:id="rId30" xr:uid="{4AAE717B-04E0-3542-B6EF-EBBDFF5E38E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId15"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2211,7 +2377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58B437B-95E1-2146-8B36-EB0A1F6AC49E}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
@@ -2382,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C663486-A90D-C84A-BAFE-43BCAB04DF2E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,8 +2708,12 @@
       <c r="D7" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="178" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -2558,8 +2728,12 @@
       <c r="D8" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="161" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -2574,8 +2748,12 @@
       <c r="D9" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="161" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -2590,8 +2768,12 @@
       <c r="D10" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2610,6 +2792,12 @@
     <hyperlink ref="F4" r:id="rId13" xr:uid="{3B02A9BC-AA40-F547-849D-6FBC404A1991}"/>
     <hyperlink ref="E5" r:id="rId14" xr:uid="{0376A56C-A176-5241-9C45-5B12CAEA50F3}"/>
     <hyperlink ref="F5" r:id="rId15" xr:uid="{EA963F02-FA39-E742-954C-25EE7A3E56D2}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{AD2289F0-E300-4F46-9363-AC922062C028}"/>
+    <hyperlink ref="E7" r:id="rId17" xr:uid="{2DE8F987-6D2A-E240-A801-1AE771CF6C2D}"/>
+    <hyperlink ref="E8" r:id="rId18" xr:uid="{7963A6E4-B56C-4A40-8E2D-3D02021223D0}"/>
+    <hyperlink ref="F8" r:id="rId19" xr:uid="{125E5C3C-414E-AD47-8C92-8B2F37EBC7E0}"/>
+    <hyperlink ref="E9" r:id="rId20" xr:uid="{168E4B1E-C54E-8349-A6DC-32D3F58EA324}"/>
+    <hyperlink ref="F9" r:id="rId21" xr:uid="{81A88D7B-81F0-A740-9F1D-363687A3822D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
